--- a/TP5_Arboles/p6/p6a.xlsx
+++ b/TP5_Arboles/p6/p6a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8f0d613f702b1599/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FF6BBA1-4670-493F-A766-243EC3AE3727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{0FF6BBA1-4670-493F-A766-243EC3AE3727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDA8FD03-D375-4C4A-A135-79DD4FBD1FA6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D027488-9CE3-4386-87D4-41FC8A535500}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Arbol B orden 5, insertar 13,16,3,12,15,8,4,19,5,9,21,11</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Se inserta 9, 21, 11</t>
+  </si>
+  <si>
+    <t>Arbol B+ orden 5, insertar 13,16,3,12,15,8,4,19,5,9,21,11</t>
   </si>
 </sst>
 </file>
@@ -111,13 +114,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -968,20 +974,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DEDF1AF-2A51-4E47-802A-D62E9C72898A}">
-  <dimension ref="A3:AB1334"/>
+  <dimension ref="A3:AJ1334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P42" sqref="P42"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="42" width="5.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AA3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1011,7 +1023,7 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2">
@@ -1044,10 +1056,22 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AA5" s="2">
+        <v>13</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>16</v>
+      </c>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="1"/>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1077,7 +1101,7 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1107,7 +1131,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1137,7 +1161,7 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1167,7 +1191,7 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2">
@@ -1184,7 +1208,7 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J10" s="1"/>
@@ -1204,10 +1228,28 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AA10" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>12</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>13</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>16</v>
+      </c>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1237,7 +1279,7 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1267,7 +1309,7 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1297,7 +1339,7 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1327,7 +1369,7 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="E15" s="2">
@@ -1338,7 +1380,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L15" s="1"/>
@@ -1359,7 +1401,7 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1817,7 +1859,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="1" t="s">
+      <c r="M30" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N30" s="1"/>

--- a/TP5_Arboles/p6/p6a.xlsx
+++ b/TP5_Arboles/p6/p6a.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8f0d613f702b1599/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8f0d613f702b1599/Documents/p6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{0FF6BBA1-4670-493F-A766-243EC3AE3727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDA8FD03-D375-4C4A-A135-79DD4FBD1FA6}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{0FF6BBA1-4670-493F-A766-243EC3AE3727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87816AF5-5D8B-4C39-95A7-749B15581269}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D027488-9CE3-4386-87D4-41FC8A535500}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Arbol B orden 5, insertar 13,16,3,12,15,8,4,19,5,9,21,11</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t>Arbol B+ orden 5, insertar 13,16,3,12,15,8,4,19,5,9,21,11</t>
+  </si>
+  <si>
+    <t>Se inserta 5</t>
+  </si>
+  <si>
+    <t>Se insertara 9, por lo tanto se creara un nuevo nodo</t>
+  </si>
+  <si>
+    <t>se insertan 21 y 11</t>
   </si>
 </sst>
 </file>
@@ -114,16 +123,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -674,6 +680,642 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Conector recto de flecha 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8372A7BE-3E1B-419A-ACFE-8712F92498E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="762000" y="2847975"/>
+          <a:ext cx="790575" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Conector recto de flecha 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51677118-96DB-4CD5-9D7A-F2E02C8C36AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1914525" y="2867025"/>
+          <a:ext cx="781050" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Conector recto de flecha 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{260929C6-AA1D-4AB9-AF9D-AAA572BFE690}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1143000" y="4371975"/>
+          <a:ext cx="790575" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Conector recto de flecha 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20B11F00-4721-4F19-AB24-C0D52F132515}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2295525" y="4391025"/>
+          <a:ext cx="781050" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Conector recto de flecha 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A6A477B-1B3E-4AA2-8D7F-6B9E6995E976}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11049000" y="4371975"/>
+          <a:ext cx="790575" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Conector recto de flecha 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DDB5A61-D3BD-4956-A589-818BCF0EBE00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12201525" y="4391025"/>
+          <a:ext cx="781050" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Conector recto de flecha 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0953376-D1C8-40A0-A832-1E759B646C12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11430000" y="5514975"/>
+          <a:ext cx="790575" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Conector recto de flecha 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CCD2944-4B94-4F09-8283-84408A62BC12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12925425" y="6667500"/>
+          <a:ext cx="2333625" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Conector recto de flecha 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DB1CD77-8546-4F73-825D-37F616DBB4A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12553950" y="6677025"/>
+          <a:ext cx="781050" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Conector recto de flecha 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{454F5E51-9CCB-4E4B-89B6-605F4838F301}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11430000" y="6657975"/>
+          <a:ext cx="790575" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Conector recto de flecha 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB160D06-8D02-454B-9A8C-230EE3EB3E7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12925425" y="6667500"/>
+          <a:ext cx="2333625" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Conector recto de flecha 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BFBD8A4-574F-4051-AA2C-4C89C45D9138}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12553950" y="6677025"/>
+          <a:ext cx="781050" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -974,26 +1616,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DEDF1AF-2A51-4E47-802A-D62E9C72898A}">
-  <dimension ref="A3:AJ1334"/>
+  <dimension ref="A3:AV1334"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AK46" sqref="AK46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="42" width="5.7109375" customWidth="1"/>
+    <col min="1" max="60" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AC3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1022,8 +1664,16 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+    </row>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2">
@@ -1056,22 +1706,24 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
-      <c r="AA5" s="2">
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="2">
         <v>13</v>
       </c>
-      <c r="AB5" s="2">
+      <c r="AD5" s="2">
         <v>16</v>
       </c>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
-      <c r="AG5" s="1" t="s">
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AH5" s="1"/>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ5" s="1"/>
+    </row>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1101,7 +1753,7 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1131,7 +1783,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1161,7 +1813,7 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1190,8 +1842,30 @@
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AC9" s="2">
+        <v>3</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>12</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>13</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>16</v>
+      </c>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="1"/>
+      <c r="AO9" s="1"/>
+    </row>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2">
@@ -1208,11 +1882,10 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="1"/>
+      <c r="K10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1228,28 +1901,10 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
-      <c r="AA10" s="2">
-        <v>3</v>
-      </c>
-      <c r="AB10" s="2">
-        <v>12</v>
-      </c>
-      <c r="AC10" s="2">
-        <v>13</v>
-      </c>
-      <c r="AD10" s="2">
-        <v>16</v>
-      </c>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH10" s="1"/>
-      <c r="AI10" s="1"/>
-      <c r="AJ10" s="1"/>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+    </row>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1279,7 +1934,7 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1309,7 +1964,7 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1339,7 +1994,7 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1369,7 +2024,7 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="E15" s="2">
@@ -1380,14 +2035,13 @@
       <c r="H15" s="2"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
+      <c r="P15" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
@@ -1400,8 +2054,29 @@
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AG15" s="2">
+        <v>13</v>
+      </c>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="2"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
+      <c r="AN15" s="1"/>
+      <c r="AO15" s="1"/>
+      <c r="AP15" s="1"/>
+      <c r="AQ15" s="1"/>
+      <c r="AR15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS15" s="1"/>
+      <c r="AT15" s="1"/>
+      <c r="AU15" s="1"/>
+      <c r="AV15" s="1"/>
+    </row>
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1430,8 +2105,28 @@
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="1"/>
+      <c r="AO16" s="1"/>
+      <c r="AP16" s="1"/>
+      <c r="AQ16" s="1"/>
+      <c r="AR16" s="1"/>
+      <c r="AS16" s="1"/>
+      <c r="AT16" s="1"/>
+      <c r="AU16" s="1"/>
+      <c r="AV16" s="1"/>
+    </row>
+    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1460,8 +2155,28 @@
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="1"/>
+      <c r="AP17" s="1"/>
+      <c r="AQ17" s="1"/>
+      <c r="AR17" s="1"/>
+      <c r="AS17" s="1"/>
+      <c r="AT17" s="1"/>
+      <c r="AU17" s="1"/>
+      <c r="AV17" s="1"/>
+    </row>
+    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>3</v>
       </c>
@@ -1498,8 +2213,36 @@
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC18" s="2">
+        <v>3</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>12</v>
+      </c>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="2">
+        <v>15</v>
+      </c>
+      <c r="AI18" s="2">
+        <v>16</v>
+      </c>
+      <c r="AJ18" s="2"/>
+      <c r="AK18" s="2"/>
+      <c r="AL18" s="1"/>
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="1"/>
+      <c r="AO18" s="1"/>
+      <c r="AP18" s="1"/>
+      <c r="AQ18" s="1"/>
+      <c r="AR18" s="1"/>
+      <c r="AS18" s="1"/>
+      <c r="AT18" s="1"/>
+      <c r="AU18" s="1"/>
+      <c r="AV18" s="1"/>
+    </row>
+    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1529,7 +2272,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1559,7 +2302,7 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1589,7 +2332,7 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1619,7 +2362,7 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1647,8 +2390,21 @@
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC23" s="1"/>
+      <c r="AF23" s="2">
+        <v>13</v>
+      </c>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="1"/>
+      <c r="AK23" s="1"/>
+      <c r="AM23" s="1"/>
+      <c r="AN23" s="1"/>
+      <c r="AO23" s="1"/>
+      <c r="AP23" s="1"/>
+    </row>
+    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1679,8 +2435,24 @@
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="1"/>
+      <c r="AJ24" s="1"/>
+      <c r="AK24" s="1"/>
+      <c r="AL24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM24" s="1"/>
+      <c r="AN24" s="1"/>
+      <c r="AO24" s="1"/>
+      <c r="AP24" s="1"/>
+    </row>
+    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1709,8 +2481,22 @@
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="1"/>
+      <c r="AJ25" s="1"/>
+      <c r="AK25" s="1"/>
+      <c r="AL25" s="1"/>
+      <c r="AM25" s="1"/>
+      <c r="AN25" s="1"/>
+      <c r="AO25" s="1"/>
+      <c r="AP25" s="1"/>
+    </row>
+    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="2">
         <v>3</v>
@@ -1752,9 +2538,37 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
-      <c r="AB26" s="1"/>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB26" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC26" s="2">
+        <v>4</v>
+      </c>
+      <c r="AD26" s="2">
+        <v>8</v>
+      </c>
+      <c r="AE26" s="2">
+        <v>12</v>
+      </c>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="2">
+        <v>15</v>
+      </c>
+      <c r="AH26" s="2">
+        <v>16</v>
+      </c>
+      <c r="AI26" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ26" s="2"/>
+      <c r="AK26" s="1"/>
+      <c r="AL26" s="1"/>
+      <c r="AM26" s="1"/>
+      <c r="AN26" s="1"/>
+      <c r="AO26" s="1"/>
+      <c r="AP26" s="1"/>
+    </row>
+    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1784,7 +2598,7 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1814,7 +2628,7 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1843,8 +2657,19 @@
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AG29" s="2">
+        <v>12</v>
+      </c>
+      <c r="AH29" s="2"/>
+      <c r="AI29" s="2"/>
+      <c r="AJ29" s="2"/>
+      <c r="AK29" s="1"/>
+      <c r="AL29" s="1"/>
+      <c r="AN29" s="1"/>
+    </row>
+    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1859,14 +2684,13 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
+      <c r="R30" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
@@ -1877,8 +2701,22 @@
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="1"/>
+      <c r="AJ30" s="1"/>
+      <c r="AK30" s="1"/>
+      <c r="AL30" s="1"/>
+      <c r="AM30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN30" s="1"/>
+    </row>
+    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1907,8 +2745,20 @@
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="1"/>
+      <c r="AJ31" s="1"/>
+      <c r="AK31" s="1"/>
+      <c r="AL31" s="1"/>
+      <c r="AM31" s="1"/>
+      <c r="AN31" s="1"/>
+    </row>
+    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1937,8 +2787,36 @@
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC32" s="2">
+        <v>3</v>
+      </c>
+      <c r="AD32" s="2">
+        <v>4</v>
+      </c>
+      <c r="AE32" s="2">
+        <v>5</v>
+      </c>
+      <c r="AF32" s="2">
+        <v>8</v>
+      </c>
+      <c r="AG32" s="1"/>
+      <c r="AH32" s="2">
+        <v>13</v>
+      </c>
+      <c r="AI32" s="2">
+        <v>15</v>
+      </c>
+      <c r="AJ32" s="2">
+        <v>16</v>
+      </c>
+      <c r="AK32" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL32" s="1"/>
+      <c r="AM32" s="1"/>
+      <c r="AN32" s="1"/>
+    </row>
+    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="2">
         <v>3</v>
@@ -1981,7 +2859,7 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2011,7 +2889,7 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2040,8 +2918,22 @@
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+      <c r="AG35" s="2">
+        <v>5</v>
+      </c>
+      <c r="AH35" s="2">
+        <v>12</v>
+      </c>
+      <c r="AI35" s="2"/>
+      <c r="AJ35" s="2"/>
+      <c r="AK35" s="1"/>
+      <c r="AM35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2070,8 +2962,17 @@
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1"/>
+      <c r="AH36" s="1"/>
+      <c r="AI36" s="1"/>
+      <c r="AJ36" s="1"/>
+      <c r="AK36" s="1"/>
+    </row>
+    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2104,8 +3005,17 @@
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="1"/>
+      <c r="AH37" s="1"/>
+      <c r="AI37" s="1"/>
+      <c r="AJ37" s="1"/>
+      <c r="AK37" s="1"/>
+    </row>
+    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2134,8 +3044,37 @@
       <c r="Z38" s="1"/>
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC38" s="2">
+        <v>3</v>
+      </c>
+      <c r="AD38" s="2">
+        <v>4</v>
+      </c>
+      <c r="AE38" s="2"/>
+      <c r="AF38" s="2"/>
+      <c r="AG38" s="1"/>
+      <c r="AH38" s="2">
+        <v>8</v>
+      </c>
+      <c r="AI38" s="2">
+        <v>9</v>
+      </c>
+      <c r="AJ38" s="2"/>
+      <c r="AK38" s="2"/>
+      <c r="AM38" s="2">
+        <v>13</v>
+      </c>
+      <c r="AN38" s="2">
+        <v>15</v>
+      </c>
+      <c r="AO38" s="2">
+        <v>16</v>
+      </c>
+      <c r="AP38" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2165,7 +3104,7 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="2">
         <v>3</v>
@@ -2214,7 +3153,7 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2243,8 +3182,22 @@
       <c r="Z41" s="1"/>
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="1"/>
+      <c r="AG41" s="2">
+        <v>5</v>
+      </c>
+      <c r="AH41" s="2">
+        <v>13</v>
+      </c>
+      <c r="AI41" s="2"/>
+      <c r="AJ41" s="2"/>
+      <c r="AK41" s="1"/>
+      <c r="AM41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2273,8 +3226,17 @@
       <c r="Z42" s="1"/>
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC42" s="1"/>
+      <c r="AD42" s="1"/>
+      <c r="AE42" s="1"/>
+      <c r="AF42" s="1"/>
+      <c r="AG42" s="1"/>
+      <c r="AH42" s="1"/>
+      <c r="AI42" s="1"/>
+      <c r="AJ42" s="1"/>
+      <c r="AK42" s="1"/>
+    </row>
+    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2303,8 +3265,17 @@
       <c r="Z43" s="1"/>
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC43" s="1"/>
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="1"/>
+      <c r="AF43" s="1"/>
+      <c r="AG43" s="1"/>
+      <c r="AH43" s="1"/>
+      <c r="AI43" s="1"/>
+      <c r="AJ43" s="1"/>
+      <c r="AK43" s="1"/>
+    </row>
+    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2333,8 +3304,41 @@
       <c r="Z44" s="1"/>
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC44" s="2">
+        <v>3</v>
+      </c>
+      <c r="AD44" s="2">
+        <v>4</v>
+      </c>
+      <c r="AE44" s="2"/>
+      <c r="AF44" s="2"/>
+      <c r="AG44" s="1"/>
+      <c r="AH44" s="2">
+        <v>8</v>
+      </c>
+      <c r="AI44" s="2">
+        <v>9</v>
+      </c>
+      <c r="AJ44" s="2">
+        <v>11</v>
+      </c>
+      <c r="AK44" s="2">
+        <v>12</v>
+      </c>
+      <c r="AM44" s="2">
+        <v>15</v>
+      </c>
+      <c r="AN44" s="2">
+        <v>16</v>
+      </c>
+      <c r="AO44" s="2">
+        <v>19</v>
+      </c>
+      <c r="AP44" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2364,7 +3368,7 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2394,7 +3398,7 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2424,7 +3428,7 @@
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
